--- a/Optmize checklist.xlsx
+++ b/Optmize checklist.xlsx
@@ -21,15 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
     <t>member</t>
   </si>
   <si>
@@ -50,9 +41,6 @@
     <t>Change the word "CONTINUE" to "TAP TO CONTINUE", or "PRESS ANY BUTTON"</t>
   </si>
   <si>
-    <t>priority</t>
-  </si>
-  <si>
     <t>Teleport platform looks very strange.</t>
   </si>
   <si>
@@ -66,6 +54,18 @@
   </si>
   <si>
     <t>Design a new UI box, use more appropriate font.</t>
+  </si>
+  <si>
+    <t>Problem describtion</t>
+  </si>
+  <si>
+    <t>Picture</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>Priority</t>
   </si>
 </sst>
 </file>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,22 +700,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="226.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -723,13 +723,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="194.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -737,11 +737,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="204.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -749,10 +749,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="231.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -760,10 +760,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
